--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
   </x:si>
   <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240295</x:t>
   </x:si>
   <x:si>
@@ -96,6 +105,15 @@
     <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
   </x:si>
   <x:si>
+    <x:t>1240302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة اسامة محمد سعيد إسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Osama Mohamed Said</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240053</x:t>
   </x:si>
   <x:si>
@@ -346,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Nabil Seddik Soliman Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان ايهاب السيد محمد ابو دنيا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marawan Ehab Elsayed Abo Donia</x:t>
   </x:si>
   <x:si>
     <x:t>1240148</x:t>
@@ -557,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +884,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1108,7 +1135,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45922.4965596412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1140,7 +1167,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1172,7 +1199,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1204,7 +1231,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9146612616</x:v>
+        <x:v>45922.4814211806</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1236,7 +1263,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1264,9 +1291,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45915.9146612616</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1289,16 +1318,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1321,14 +1350,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1351,16 +1380,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9120101505</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1383,16 +1412,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1424,7 +1451,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45915.9120101505</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1456,7 +1483,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9148672106</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1488,7 +1515,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.8748535069</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1520,7 +1547,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.9136492708</x:v>
+        <x:v>45915.9148672106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1552,7 +1579,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9137758912</x:v>
+        <x:v>45915.8748535069</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1584,7 +1611,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9136492708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1616,7 +1643,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9154996528</x:v>
+        <x:v>45915.9137758912</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1644,9 +1671,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9147579514</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,16 +1698,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45915.9154996528</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,16 +1730,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45915.9147579514</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1769,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9145530093</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1801,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9126289352</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1833,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45915.9145530093</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1865,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45915.9126289352</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1897,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1929,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1961,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4148378472</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1993,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9143423264</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +2025,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45909.4148378472</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2057,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45915.9143423264</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2089,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2121,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2153,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2185,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45922.4764817477</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2217,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.9149688657</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2249,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2281,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2313,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45915.9149688657</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2314,9 +2341,11 @@
       <x:c r="C45" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s"/>
+      <x:c r="D45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.8836662384</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2339,16 +2368,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4148928588</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2371,16 +2400,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.9153409722</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,16 +2432,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
+      <x:c r="D48" s="2" t="s"/>
       <x:c r="E48" s="3">
-        <x:v>45915.9138620718</x:v>
+        <x:v>45915.8836662384</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2429,6 +2456,102 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45909.4148928588</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45915.9153409722</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45915.9138620718</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد محمد عبدالله حسن عبدالله</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Abdallah</x:t>
+    <x:t>Ahmed Mohammed Abdullah Hassan Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1240016</x:t>
@@ -78,6 +78,15 @@
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
   </x:si>
   <x:si>
+    <x:t>1240210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امينه امجد رخا احمد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amina Amgad Rakha Ahmed Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250169</x:t>
   </x:si>
   <x:si>
@@ -265,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Alaa Abdelraheem Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد احمد التابعى عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
   </x:si>
   <x:si>
     <x:t>1240113</x:t>
@@ -1135,7 +1135,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45922.4965596412</x:v>
+        <x:v>45923.4516842593</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1167,7 +1167,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45922.4965596412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1199,7 +1199,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1231,7 +1231,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45922.4814211806</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1263,7 +1263,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45922.4814211806</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1295,7 +1295,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.9146612616</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1327,7 +1327,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45915.9146612616</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1355,9 +1355,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1380,16 +1382,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1417,9 +1417,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1442,16 +1444,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45915.9120101505</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1483,7 +1483,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45915.9120101505</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1515,7 +1515,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1547,7 +1547,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.9148672106</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1579,7 +1579,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.8748535069</x:v>
+        <x:v>45915.9148672106</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1611,7 +1611,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.9136492708</x:v>
+        <x:v>45915.8748535069</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1643,7 +1643,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9137758912</x:v>
+        <x:v>45915.9136492708</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1675,7 +1675,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9137758912</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1707,7 +1707,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9154996528</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1735,9 +1735,11 @@
       <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9147579514</x:v>
+        <x:v>45915.9154996528</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1760,16 +1762,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45915.9147579514</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1801,7 +1801,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,7 +1833,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9145530093</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Tarek Abdellatif Mohamed Khatib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى مصطفى السيد احمد احمد الشرشابي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Mostafa Al-Sayed Ahmed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240301</x:t>
@@ -584,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -884,7 +893,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T51"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1231,7 +1240,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45924.9054443634</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1263,7 +1272,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45922.4814211806</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1295,7 +1304,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45922.4814211806</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1327,7 +1336,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.9146612616</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1359,7 +1368,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45915.9146612616</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1387,9 +1396,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1412,16 +1423,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1449,9 +1458,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1474,16 +1485,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45915.9120101505</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45915.9120101505</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9148672106</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.8748535069</x:v>
+        <x:v>45915.9148672106</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.9136492708</x:v>
+        <x:v>45915.8748535069</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9137758912</x:v>
+        <x:v>45915.9136492708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9137758912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9154996528</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1767,9 +1776,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9147579514</x:v>
+        <x:v>45915.9154996528</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1792,16 +1803,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45915.9147579514</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,7 +1842,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1865,7 +1874,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.9126289352</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1897,7 +1906,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45915.9126289352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4148378472</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9143423264</x:v>
+        <x:v>45909.4148378472</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45915.9143423264</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45922.4764817477</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45922.4764817477</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2258,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2290,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2322,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.9149688657</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45915.9149688657</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2377,7 +2386,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2409,7 +2418,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2437,9 +2446,11 @@
       <x:c r="C48" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="D48" s="2" t="s"/>
+      <x:c r="D48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
       <x:c r="E48" s="3">
-        <x:v>45915.8836662384</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2462,16 +2473,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
+      <x:c r="D49" s="2" t="s"/>
       <x:c r="E49" s="3">
-        <x:v>45909.4148928588</x:v>
+        <x:v>45915.8836662384</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2503,7 +2512,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45915.9153409722</x:v>
+        <x:v>45909.4148928588</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2535,7 +2544,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45915.9138620718</x:v>
+        <x:v>45915.9153409722</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2552,6 +2561,38 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45915.9138620718</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -78,6 +78,15 @@
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
   </x:si>
   <x:si>
+    <x:t>1240020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240210</x:t>
   </x:si>
   <x:si>
@@ -451,15 +460,6 @@
   </x:si>
   <x:si>
     <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيي اسامه محمد لطفي فريد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yahya Osama Mohamed Lotfy</x:t>
   </x:si>
   <x:si>
     <x:t>1240277</x:t>
@@ -1144,7 +1144,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45923.4516842593</x:v>
+        <x:v>45925.3613589468</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1176,7 +1176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45922.4965596412</x:v>
+        <x:v>45923.4516842593</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1208,7 +1208,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45922.4965596412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1240,7 +1240,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45924.9054443634</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1272,7 +1272,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45924.9054443634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1304,7 +1304,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.4814211806</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1336,7 +1336,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45922.4814211806</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1368,7 +1368,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.9146612616</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1400,7 +1400,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45915.9146612616</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1428,9 +1428,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1453,16 +1455,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1490,9 +1490,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1515,16 +1517,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45915.9120101505</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1556,7 +1556,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45915.9120101505</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1588,7 +1588,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1620,7 +1620,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.9148672106</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1652,7 +1652,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.8748535069</x:v>
+        <x:v>45915.9148672106</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1684,7 +1684,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9136492708</x:v>
+        <x:v>45915.8748535069</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1716,7 +1716,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9137758912</x:v>
+        <x:v>45915.9136492708</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1748,7 +1748,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9137758912</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1780,7 +1780,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9154996528</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1808,9 +1808,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9147579514</x:v>
+        <x:v>45915.9154996528</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,16 +1835,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45915.9147579514</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1874,7 +1874,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1906,7 +1906,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.9126289352</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1938,7 +1938,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45915.9126289352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1970,7 +1970,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2002,7 +2002,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2034,7 +2034,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2066,7 +2066,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4148378472</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2098,7 +2098,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9143423264</x:v>
+        <x:v>45909.4148378472</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2130,7 +2130,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45915.9143423264</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2162,7 +2162,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2194,7 +2194,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2226,7 +2226,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45922.4764817477</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2258,7 +2258,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45922.4764817477</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2290,7 +2290,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2322,7 +2322,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2354,7 +2354,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.9149688657</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2386,7 +2386,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45915.9149688657</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2418,7 +2418,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2450,7 +2450,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2478,9 +2478,11 @@
       <x:c r="C49" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="D49" s="2" t="s"/>
+      <x:c r="D49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
       <x:c r="E49" s="3">
-        <x:v>45915.8836662384</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2503,16 +2505,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
         <x:v>147</x:v>
       </x:c>
+      <x:c r="D50" s="2" t="s"/>
       <x:c r="E50" s="3">
-        <x:v>45909.4148928588</x:v>
+        <x:v>45915.8836662384</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -241,15 +241,6 @@
   </x:si>
   <x:si>
     <x:t>Essam Mohamed Abdel Nasser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد عبد المنجى مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240335</x:t>
@@ -593,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -893,7 +884,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1748,7 +1739,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9137758912</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9154996528</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1808,11 +1799,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45915.9154996528</x:v>
+        <x:v>45915.9147579514</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1835,14 +1824,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45915.9147579514</x:v>
+        <x:v>45909.414975</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1874,7 +1865,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.414975</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1906,7 +1897,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45915.9126289352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1938,7 +1929,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.9126289352</x:v>
+        <x:v>45908.6951308218</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1970,7 +1961,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.6951308218</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2002,7 +1993,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2034,7 +2025,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2066,7 +2057,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45909.4148378472</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2098,7 +2089,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4148378472</x:v>
+        <x:v>45915.9143423264</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2130,7 +2121,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.9143423264</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2162,7 +2153,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2194,7 +2185,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2226,7 +2217,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45922.4764817477</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2258,7 +2249,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45922.4764817477</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2290,7 +2281,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2322,7 +2313,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2354,7 +2345,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45915.9149688657</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2386,7 +2377,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.9149688657</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2418,7 +2409,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2450,7 +2441,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2478,11 +2469,9 @@
       <x:c r="C49" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
+      <x:c r="D49" s="2" t="s"/>
       <x:c r="E49" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45915.8836662384</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2505,14 +2494,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="s">
+      <x:c r="D50" s="2" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="D50" s="2" t="s"/>
       <x:c r="E50" s="3">
-        <x:v>45915.8836662384</x:v>
+        <x:v>45915.9153409722</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2544,7 +2535,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45915.9153409722</x:v>
+        <x:v>45915.9138620718</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2561,38 +2552,6 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:20">
-      <x:c r="A52" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="E52" s="3">
-        <x:v>45915.9138620718</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s"/>
-      <x:c r="G52" s="2" t="s"/>
-      <x:c r="H52" s="2" t="s"/>
-      <x:c r="I52" s="2" t="s"/>
-      <x:c r="J52" s="2" t="s"/>
-      <x:c r="K52" s="2" t="s"/>
-      <x:c r="L52" s="2" t="s"/>
-      <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="2" t="s"/>
-      <x:c r="O52" s="2" t="s"/>
-      <x:c r="P52" s="2" t="s"/>
-      <x:c r="Q52" s="2" t="s"/>
-      <x:c r="R52" s="2" t="s"/>
-      <x:c r="S52" s="2" t="s"/>
-      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -1515,7 +1515,7 @@
       </x:c>
       <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45927.4623032407</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -321,6 +321,15 @@
     <x:t>Kariem Ahmed Abdelkarim Fahmi Azaz</x:t>
   </x:si>
   <x:si>
+    <x:t>1240249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240122</x:t>
   </x:si>
   <x:si>
@@ -445,12 +454,6 @@
   </x:si>
   <x:si>
     <x:t>Noor Mohamed Talaat Mohamed Dawoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
   </x:si>
   <x:si>
     <x:t>1240277</x:t>
@@ -2025,7 +2028,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45915.9269454051</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2060,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4148378472</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2092,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9143423264</x:v>
+        <x:v>45909.4148378472</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2124,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45915.9143423264</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2156,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2188,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4149671644</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2220,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45922.4764817477</x:v>
+        <x:v>45909.4149671644</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2252,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6646261227</x:v>
+        <x:v>45922.4764817477</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2284,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4157712963</x:v>
+        <x:v>45907.6646261227</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2316,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.4157712963</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2348,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.9149688657</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2377,7 +2380,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45915.9149688657</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2409,7 +2412,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2441,7 +2444,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2469,9 +2472,11 @@
       <x:c r="C49" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="D49" s="2" t="s"/>
+      <x:c r="D49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
       <x:c r="E49" s="3">
-        <x:v>45915.8836662384</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2494,13 +2499,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45915.9153409722</x:v>
@@ -2526,13 +2531,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E51" s="3">
         <x:v>45915.9138620718</x:v>

--- a/downloaded_files/MTHS102_Tutorial-35064.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35064.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -171,7 +171,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240318</x:t>
@@ -895,7 +898,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.220625000000002" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.910625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="51.490625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1454,7 +1457,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1479,13 +1484,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6646685995</x:v>
@@ -1511,10 +1516,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
@@ -1541,13 +1546,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45915.9120101505</x:v>
@@ -1573,13 +1578,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.4228482986</x:v>
@@ -1605,13 +1610,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6647413194</x:v>
@@ -1637,13 +1642,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45915.9148672106</x:v>
@@ -1669,13 +1674,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45915.8748535069</x:v>
@@ -1701,13 +1706,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45915.9136492708</x:v>
@@ -1733,13 +1738,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6648501968</x:v>
@@ -1765,13 +1770,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45915.9154996528</x:v>
@@ -1797,10 +1802,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
@@ -1827,13 +1832,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45909.414975</x:v>
@@ -1859,13 +1864,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.6646372685</x:v>
@@ -1891,13 +1896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45915.9126289352</x:v>
@@ -1923,13 +1928,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45908.6951308218</x:v>
@@ -1955,13 +1960,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.4201690162</x:v>
@@ -1987,13 +1992,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6649026968</x:v>
@@ -2019,13 +2024,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45915.9269454051</x:v>
@@ -2051,13 +2056,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.6648360764</x:v>
@@ -2083,13 +2088,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45909.4148378472</x:v>
@@ -2115,13 +2120,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45915.9143423264</x:v>
@@ -2147,13 +2152,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.6647313657</x:v>
@@ -2179,13 +2184,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.6646419792</x:v>
@@ -2211,13 +2216,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45909.4149671644</x:v>
@@ -2243,13 +2248,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45922.4764817477</x:v>
@@ -2275,13 +2280,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45907.6646261227</x:v>
@@ -2307,13 +2312,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45907.4157712963</x:v>
@@ -2339,13 +2344,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45907.6650168634</x:v>
@@ -2371,13 +2376,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45915.9149688657</x:v>
@@ -2403,13 +2408,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45907.6646564468</x:v>
@@ -2435,13 +2440,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45907.4194505787</x:v>
@@ -2467,13 +2472,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45907.664794213</x:v>
@@ -2499,13 +2504,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45915.9153409722</x:v>
@@ -2531,13 +2536,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
         <x:v>45915.9138620718</x:v>
